--- a/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
+++ b/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>semana</t>
   </si>
@@ -60,36 +60,9 @@
     <t>Arendt</t>
   </si>
   <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Si queda tiempo</t>
-  </si>
-  <si>
-    <t>Lipovetsky</t>
-  </si>
-  <si>
-    <t>Gorgias y Giges</t>
-  </si>
-  <si>
-    <t>Rawls</t>
-  </si>
-  <si>
-    <t>Sennet</t>
-  </si>
-  <si>
-    <t>Santuc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Control Presencial: Taylor - Conducción de vida </t>
   </si>
   <si>
-    <t>Leibniz</t>
-  </si>
-  <si>
-    <t>Eco. Prof.</t>
-  </si>
-  <si>
     <t>Nietzche</t>
   </si>
   <si>
@@ -144,22 +117,22 @@
     <t>15 de Julio</t>
   </si>
   <si>
-    <t>moder+postmod</t>
-  </si>
-  <si>
     <t>Orestíada</t>
   </si>
   <si>
     <t>El pensar y las reflexiones morales</t>
   </si>
   <si>
-    <t>Moderna/Kant</t>
-  </si>
-  <si>
-    <t>Frankfurt? Kant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bernstein </t>
+  </si>
+  <si>
+    <t>Kant/CRP</t>
+  </si>
+  <si>
+    <t>Kant/FMC</t>
+  </si>
+  <si>
+    <t>Butler Frankfurt, Sennet, lipovetsky, rawls, leibniz</t>
   </si>
 </sst>
 </file>
@@ -195,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -223,6 +196,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -263,9 +248,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -292,6 +274,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,7 +568,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,275 +577,257 @@
     <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="12"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
+      <c r="C3" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="9">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="10">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>43</v>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F4" s="3"/>
-      <c r="G4" s="15"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="10">
+      <c r="B5" s="9">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
+      <c r="C5" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="12"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="10">
+      <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F6" s="3"/>
-      <c r="G6" s="13"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="10">
+      <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
+      <c r="C7" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="12"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="11"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>29</v>
+      <c r="C8" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="10">
+      <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>30</v>
+      <c r="C9" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="12"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="10">
+      <c r="A10" s="7"/>
+      <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="6" t="s">
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="16"/>
+      <c r="G10" s="15"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="10">
+      <c r="B11" s="9">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="3"/>
-      <c r="G11" s="13"/>
+      <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>10</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="11"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="10">
+      <c r="B13" s="9">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="12"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="11"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="3"/>
-      <c r="F14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="12"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="11"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F16" s="3"/>
-      <c r="G16" s="13"/>
+      <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10">
+      <c r="A18" s="7"/>
+      <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="6" t="s">
+      <c r="C18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
+++ b/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
@@ -168,7 +168,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,12 +205,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -239,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,9 +274,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -568,7 +559,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +680,7 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -704,7 +695,7 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -718,7 +709,7 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D11" s="8" t="s">
@@ -734,7 +725,7 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="16" t="s">
         <v>24</v>
       </c>
       <c r="D12" s="3" t="s">

--- a/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
+++ b/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
@@ -60,9 +60,6 @@
     <t>Arendt</t>
   </si>
   <si>
-    <t xml:space="preserve">Control Presencial: Taylor - Conducción de vida </t>
-  </si>
-  <si>
     <t>Nietzche</t>
   </si>
   <si>
@@ -133,6 +130,9 @@
   </si>
   <si>
     <t>Butler Frankfurt, Sennet, lipovetsky, rawls, leibniz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Presencial: Gamio : Justicia, Cvr y Orestíada </t>
   </si>
 </sst>
 </file>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -607,13 +607,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14"/>
@@ -623,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -637,7 +637,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>9</v>
@@ -653,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -667,10 +667,10 @@
         <v>6</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -681,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -696,7 +696,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>2</v>
@@ -710,7 +710,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>8</v>
@@ -726,10 +726,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -739,11 +739,11 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
+      <c r="C13" s="16" t="s">
+        <v>24</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -754,12 +754,11 @@
         <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
+        <v>10</v>
+      </c>
       <c r="F14" s="3"/>
       <c r="G14" s="11"/>
     </row>
@@ -768,10 +767,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -782,10 +781,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -798,7 +797,7 @@
         <v>15</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -811,7 +810,7 @@
         <v>16</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>3</v>

--- a/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
+++ b/assets uarm/2023 1 UarmPCrit/Erinias Ctonológicas.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>semana</t>
   </si>
@@ -63,57 +63,9 @@
     <t>Nietzche</t>
   </si>
   <si>
-    <t>1 de Abril</t>
-  </si>
-  <si>
-    <t>8 de Abril</t>
-  </si>
-  <si>
-    <t>15 de Abril</t>
-  </si>
-  <si>
-    <t>22 de Abril</t>
-  </si>
-  <si>
-    <t>29 de Abril</t>
-  </si>
-  <si>
-    <t>6 de Mayo</t>
-  </si>
-  <si>
-    <t>13 de Mayo</t>
-  </si>
-  <si>
-    <t>20 de Mayo</t>
-  </si>
-  <si>
-    <t>27 de Mayo</t>
-  </si>
-  <si>
-    <t>3 de Junio</t>
-  </si>
-  <si>
-    <t>10 de Junio</t>
-  </si>
-  <si>
-    <t>17 de Junio</t>
-  </si>
-  <si>
-    <t>24 de Junio</t>
-  </si>
-  <si>
-    <t>1 de Julio</t>
-  </si>
-  <si>
-    <t>8 de Julio</t>
-  </si>
-  <si>
     <t>VIRTUAL</t>
   </si>
   <si>
-    <t>15 de Julio</t>
-  </si>
-  <si>
     <t>Orestíada</t>
   </si>
   <si>
@@ -133,6 +85,15 @@
   </si>
   <si>
     <t xml:space="preserve">Control Presencial: Gamio : Justicia, Cvr y Orestíada </t>
+  </si>
+  <si>
+    <t>25 de Agosto</t>
+  </si>
+  <si>
+    <t>1 de Septiembre</t>
+  </si>
+  <si>
+    <t>8 de septiembre</t>
   </si>
 </sst>
 </file>
@@ -559,14 +520,14 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="45.85546875" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
@@ -593,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -607,13 +568,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="14"/>
@@ -623,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>12</v>
@@ -636,9 +597,7 @@
       <c r="B6" s="9">
         <v>4</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>17</v>
-      </c>
+      <c r="C6" s="16"/>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
@@ -652,11 +611,9 @@
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="16"/>
+      <c r="D7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -666,11 +623,9 @@
       <c r="B8" s="9">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -680,11 +635,9 @@
       <c r="B9" s="9">
         <v>7</v>
       </c>
-      <c r="C9" s="16" t="s">
-        <v>20</v>
-      </c>
+      <c r="C9" s="16"/>
       <c r="D9" s="3" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -695,9 +648,7 @@
       <c r="B10" s="9">
         <v>8</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>21</v>
-      </c>
+      <c r="C10" s="16"/>
       <c r="D10" s="5" t="s">
         <v>2</v>
       </c>
@@ -709,9 +660,7 @@
       <c r="B11" s="9">
         <v>9</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
+      <c r="C11" s="16"/>
       <c r="D11" s="8" t="s">
         <v>8</v>
       </c>
@@ -725,9 +674,7 @@
       <c r="B12" s="9">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>23</v>
-      </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="3" t="s">
         <v>11</v>
       </c>
@@ -739,9 +686,7 @@
       <c r="B13" s="9">
         <v>11</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>24</v>
-      </c>
+      <c r="C13" s="16"/>
       <c r="D13" s="3" t="s">
         <v>13</v>
       </c>
@@ -753,9 +698,7 @@
       <c r="B14" s="9">
         <v>12</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="3" t="s">
         <v>10</v>
       </c>
@@ -766,11 +709,9 @@
       <c r="B15" s="9">
         <v>13</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="3" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -780,11 +721,9 @@
       <c r="B16" s="9">
         <v>14</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="8" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>5</v>
@@ -796,9 +735,7 @@
       <c r="B17" s="9">
         <v>15</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -809,9 +746,7 @@
       <c r="B18" s="9">
         <v>16</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="5" t="s">
         <v>3</v>
       </c>
